--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna2-Epha3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna2-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.764764333333333</v>
+        <v>3.293025333333333</v>
       </c>
       <c r="H2">
-        <v>8.294293</v>
+        <v>9.879076</v>
       </c>
       <c r="I2">
-        <v>0.2621645059246011</v>
+        <v>0.2347004583311417</v>
       </c>
       <c r="J2">
-        <v>0.2621645059246011</v>
+        <v>0.2347004583311417</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.106217</v>
+        <v>1.118034</v>
       </c>
       <c r="N2">
-        <v>3.318651</v>
+        <v>3.354102</v>
       </c>
       <c r="O2">
-        <v>0.01813136626967656</v>
+        <v>0.01817106018145251</v>
       </c>
       <c r="P2">
-        <v>0.01813136626967656</v>
+        <v>0.01817106018145251</v>
       </c>
       <c r="Q2">
-        <v>3.058429306527</v>
+        <v>3.681714285527999</v>
       </c>
       <c r="R2">
-        <v>27.525863758743</v>
+        <v>33.135428569752</v>
       </c>
       <c r="S2">
-        <v>0.004753400679827733</v>
+        <v>0.004264756152949663</v>
       </c>
       <c r="T2">
-        <v>0.004753400679827733</v>
+        <v>0.004264756152949664</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.764764333333333</v>
+        <v>3.293025333333333</v>
       </c>
       <c r="H3">
-        <v>8.294293</v>
+        <v>9.879076</v>
       </c>
       <c r="I3">
-        <v>0.2621645059246011</v>
+        <v>0.2347004583311417</v>
       </c>
       <c r="J3">
-        <v>0.2621645059246011</v>
+        <v>0.2347004583311417</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>177.734444</v>
       </c>
       <c r="O3">
-        <v>0.971047664518299</v>
+        <v>0.962887615892719</v>
       </c>
       <c r="P3">
-        <v>0.971047664518299</v>
+        <v>0.9628876158927191</v>
       </c>
       <c r="Q3">
-        <v>163.7979505253435</v>
+        <v>195.0946755659715</v>
       </c>
       <c r="R3">
-        <v>1474.181554728092</v>
+        <v>1755.852080093744</v>
       </c>
       <c r="S3">
-        <v>0.2545742311976776</v>
+        <v>0.2259901647714015</v>
       </c>
       <c r="T3">
-        <v>0.2545742311976776</v>
+        <v>0.2259901647714015</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.764764333333333</v>
+        <v>3.293025333333333</v>
       </c>
       <c r="H4">
-        <v>8.294293</v>
+        <v>9.879076</v>
       </c>
       <c r="I4">
-        <v>0.2621645059246011</v>
+        <v>0.2347004583311417</v>
       </c>
       <c r="J4">
-        <v>0.2621645059246011</v>
+        <v>0.2347004583311417</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,33 +682,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6602006666666668</v>
+        <v>1.121724666666667</v>
       </c>
       <c r="N4">
-        <v>1.980602</v>
+        <v>3.365174</v>
       </c>
       <c r="O4">
-        <v>0.01082096921202439</v>
+        <v>0.01823104344324033</v>
       </c>
       <c r="P4">
-        <v>0.01082096921202439</v>
+        <v>0.01823104344324033</v>
       </c>
       <c r="Q4">
-        <v>1.825299256042889</v>
+        <v>3.693867744358222</v>
       </c>
       <c r="R4">
-        <v>16.427693304386</v>
+        <v>33.244809699224</v>
       </c>
       <c r="S4">
-        <v>0.002836874047095693</v>
+        <v>0.004278834251983461</v>
       </c>
       <c r="T4">
-        <v>0.002836874047095692</v>
+        <v>0.004278834251983461</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.925454666666667</v>
+        <v>3.293025333333333</v>
       </c>
       <c r="H5">
-        <v>17.776364</v>
+        <v>9.879076</v>
       </c>
       <c r="I5">
-        <v>0.56187208303298</v>
+        <v>0.2347004583311417</v>
       </c>
       <c r="J5">
-        <v>0.5618720830329801</v>
+        <v>0.2347004583311417</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.106217</v>
+        <v>0.04370233333333334</v>
       </c>
       <c r="N5">
-        <v>3.318651</v>
+        <v>0.131107</v>
       </c>
       <c r="O5">
-        <v>0.01813136626967656</v>
+        <v>0.0007102804825880949</v>
       </c>
       <c r="P5">
-        <v>0.01813136626967656</v>
+        <v>0.0007102804825880949</v>
       </c>
       <c r="Q5">
-        <v>6.554838684996001</v>
+        <v>0.1439128907924444</v>
       </c>
       <c r="R5">
-        <v>58.993548164964</v>
+        <v>1.295216017132</v>
       </c>
       <c r="S5">
-        <v>0.01018750853417708</v>
+        <v>0.0001667031548070904</v>
       </c>
       <c r="T5">
-        <v>0.01018750853417708</v>
+        <v>0.0001667031548070904</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,40 +794,40 @@
         <v>17.776364</v>
       </c>
       <c r="I6">
-        <v>0.56187208303298</v>
+        <v>0.422318927221656</v>
       </c>
       <c r="J6">
-        <v>0.5618720830329801</v>
+        <v>0.422318927221656</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>59.24481466666666</v>
+        <v>1.118034</v>
       </c>
       <c r="N6">
-        <v>177.734444</v>
+        <v>3.354102</v>
       </c>
       <c r="O6">
-        <v>0.971047664518299</v>
+        <v>0.01817106018145251</v>
       </c>
       <c r="P6">
-        <v>0.971047664518299</v>
+        <v>0.01817106018145251</v>
       </c>
       <c r="Q6">
-        <v>351.0524635424018</v>
+        <v>6.624859782792</v>
       </c>
       <c r="R6">
-        <v>3159.472171881616</v>
+        <v>59.62373804512801</v>
       </c>
       <c r="S6">
-        <v>0.545604573987207</v>
+        <v>0.007673982642311173</v>
       </c>
       <c r="T6">
-        <v>0.5456045739872071</v>
+        <v>0.007673982642311174</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>17.776364</v>
       </c>
       <c r="I7">
-        <v>0.56187208303298</v>
+        <v>0.422318927221656</v>
       </c>
       <c r="J7">
-        <v>0.5618720830329801</v>
+        <v>0.422318927221656</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,33 +868,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6602006666666668</v>
+        <v>59.24481466666666</v>
       </c>
       <c r="N7">
-        <v>1.980602</v>
+        <v>177.734444</v>
       </c>
       <c r="O7">
-        <v>0.01082096921202439</v>
+        <v>0.962887615892719</v>
       </c>
       <c r="P7">
-        <v>0.01082096921202439</v>
+        <v>0.9628876158927191</v>
       </c>
       <c r="Q7">
-        <v>3.911989121236445</v>
+        <v>351.0524635424018</v>
       </c>
       <c r="R7">
-        <v>35.20790209112801</v>
+        <v>3159.472171881616</v>
       </c>
       <c r="S7">
-        <v>0.006080000511595887</v>
+        <v>0.406645664978831</v>
       </c>
       <c r="T7">
-        <v>0.006080000511595887</v>
+        <v>0.4066456649788311</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.3772583333333334</v>
+        <v>5.925454666666667</v>
       </c>
       <c r="H8">
-        <v>1.131775</v>
+        <v>17.776364</v>
       </c>
       <c r="I8">
-        <v>0.03577293853651124</v>
+        <v>0.422318927221656</v>
       </c>
       <c r="J8">
-        <v>0.03577293853651124</v>
+        <v>0.422318927221656</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.106217</v>
+        <v>1.121724666666667</v>
       </c>
       <c r="N8">
-        <v>3.318651</v>
+        <v>3.365174</v>
       </c>
       <c r="O8">
-        <v>0.01813136626967656</v>
+        <v>0.01823104344324033</v>
       </c>
       <c r="P8">
-        <v>0.01813136626967656</v>
+        <v>0.01823104344324033</v>
       </c>
       <c r="Q8">
-        <v>0.4173295817250001</v>
+        <v>6.646728660815111</v>
       </c>
       <c r="R8">
-        <v>3.755966235525001</v>
+        <v>59.82055794733601</v>
       </c>
       <c r="S8">
-        <v>0.0006486122511481126</v>
+        <v>0.007699314709080661</v>
       </c>
       <c r="T8">
-        <v>0.0006486122511481127</v>
+        <v>0.007699314709080661</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,55 +965,55 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.3772583333333334</v>
+        <v>5.925454666666667</v>
       </c>
       <c r="H9">
-        <v>1.131775</v>
+        <v>17.776364</v>
       </c>
       <c r="I9">
-        <v>0.03577293853651124</v>
+        <v>0.422318927221656</v>
       </c>
       <c r="J9">
-        <v>0.03577293853651124</v>
+        <v>0.422318927221656</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>59.24481466666666</v>
+        <v>0.04370233333333334</v>
       </c>
       <c r="N9">
-        <v>177.734444</v>
+        <v>0.131107</v>
       </c>
       <c r="O9">
-        <v>0.971047664518299</v>
+        <v>0.0007102804825880949</v>
       </c>
       <c r="P9">
-        <v>0.971047664518299</v>
+        <v>0.0007102804825880949</v>
       </c>
       <c r="Q9">
-        <v>22.35060003978889</v>
+        <v>0.2589561949942222</v>
       </c>
       <c r="R9">
-        <v>201.1554003581</v>
+        <v>2.330605754948</v>
       </c>
       <c r="S9">
-        <v>0.03473722841883589</v>
+        <v>0.0002999648914330844</v>
       </c>
       <c r="T9">
-        <v>0.0347372284188359</v>
+        <v>0.0002999648914330844</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.186484333333333</v>
+      </c>
+      <c r="H10">
+        <v>6.559453</v>
+      </c>
+      <c r="I10">
+        <v>0.1558350827042511</v>
+      </c>
+      <c r="J10">
+        <v>0.1558350827042511</v>
+      </c>
+      <c r="K10">
         <v>2</v>
       </c>
-      <c r="F10">
+      <c r="L10">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G10">
-        <v>0.3772583333333334</v>
-      </c>
-      <c r="H10">
-        <v>1.131775</v>
-      </c>
-      <c r="I10">
-        <v>0.03577293853651124</v>
-      </c>
-      <c r="J10">
-        <v>0.03577293853651124</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
       <c r="M10">
-        <v>0.6602006666666668</v>
+        <v>1.118034</v>
       </c>
       <c r="N10">
-        <v>1.980602</v>
+        <v>3.354102</v>
       </c>
       <c r="O10">
-        <v>0.01082096921202439</v>
+        <v>0.01817106018145251</v>
       </c>
       <c r="P10">
-        <v>0.01082096921202439</v>
+        <v>0.01817106018145251</v>
       </c>
       <c r="Q10">
-        <v>0.2490662031722223</v>
+        <v>2.444563825133999</v>
       </c>
       <c r="R10">
-        <v>2.24159582855</v>
+        <v>22.001074426206</v>
       </c>
       <c r="S10">
-        <v>0.0003870978665272288</v>
+        <v>0.002831688666200577</v>
       </c>
       <c r="T10">
-        <v>0.0003870978665272289</v>
+        <v>0.002831688666200577</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,61 +1098,61 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.8907996666666668</v>
+        <v>2.186484333333333</v>
       </c>
       <c r="H11">
-        <v>2.672399</v>
+        <v>6.559453</v>
       </c>
       <c r="I11">
-        <v>0.08446870196994463</v>
+        <v>0.1558350827042511</v>
       </c>
       <c r="J11">
-        <v>0.08446870196994465</v>
+        <v>0.1558350827042511</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>1.106217</v>
+        <v>59.24481466666666</v>
       </c>
       <c r="N11">
-        <v>3.318651</v>
+        <v>177.734444</v>
       </c>
       <c r="O11">
-        <v>0.01813136626967656</v>
+        <v>0.962887615892719</v>
       </c>
       <c r="P11">
-        <v>0.01813136626967656</v>
+        <v>0.9628876158927191</v>
       </c>
       <c r="Q11">
-        <v>0.9854177348610001</v>
+        <v>129.5378590999035</v>
       </c>
       <c r="R11">
-        <v>8.868759613749001</v>
+        <v>1165.840731899132</v>
       </c>
       <c r="S11">
-        <v>0.001531532973741216</v>
+        <v>0.1500516712575411</v>
       </c>
       <c r="T11">
-        <v>0.001531532973741217</v>
+        <v>0.1500516712575411</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
         <v>3</v>
       </c>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8907996666666668</v>
+        <v>2.186484333333333</v>
       </c>
       <c r="H12">
-        <v>2.672399</v>
+        <v>6.559453</v>
       </c>
       <c r="I12">
-        <v>0.08446870196994463</v>
+        <v>0.1558350827042511</v>
       </c>
       <c r="J12">
-        <v>0.08446870196994465</v>
+        <v>0.1558350827042511</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,33 +1178,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>59.24481466666666</v>
+        <v>1.121724666666667</v>
       </c>
       <c r="N12">
-        <v>177.734444</v>
+        <v>3.365174</v>
       </c>
       <c r="O12">
-        <v>0.971047664518299</v>
+        <v>0.01823104344324033</v>
       </c>
       <c r="P12">
-        <v>0.971047664518299</v>
+        <v>0.01823104344324033</v>
       </c>
       <c r="Q12">
-        <v>52.77526115679511</v>
+        <v>2.452633409980222</v>
       </c>
       <c r="R12">
-        <v>474.9773504111561</v>
+        <v>22.073700689822</v>
       </c>
       <c r="S12">
-        <v>0.08202313577280698</v>
+        <v>0.002841036162762152</v>
       </c>
       <c r="T12">
-        <v>0.082023135772807</v>
+        <v>0.002841036162762152</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.8907996666666668</v>
+        <v>2.186484333333333</v>
       </c>
       <c r="H13">
-        <v>2.672399</v>
+        <v>6.559453</v>
       </c>
       <c r="I13">
-        <v>0.08446870196994463</v>
+        <v>0.1558350827042511</v>
       </c>
       <c r="J13">
-        <v>0.08446870196994465</v>
+        <v>0.1558350827042511</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.6602006666666668</v>
+        <v>0.04370233333333334</v>
       </c>
       <c r="N13">
-        <v>1.980602</v>
+        <v>0.131107</v>
       </c>
       <c r="O13">
-        <v>0.01082096921202439</v>
+        <v>0.0007102804825880949</v>
       </c>
       <c r="P13">
-        <v>0.01082096921202439</v>
+        <v>0.0007102804825880949</v>
       </c>
       <c r="Q13">
-        <v>0.588106533799778</v>
+        <v>0.09555446716344444</v>
       </c>
       <c r="R13">
-        <v>5.292958804198001</v>
+        <v>0.8599902044709999</v>
       </c>
       <c r="S13">
-        <v>0.0009140332233964346</v>
+        <v>0.0001106866177473312</v>
       </c>
       <c r="T13">
-        <v>0.0009140332233964346</v>
+        <v>0.0001106866177473312</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,22 +1278,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.5876370000000001</v>
+        <v>1.169741</v>
       </c>
       <c r="H14">
-        <v>1.762911</v>
+        <v>3.509223</v>
       </c>
       <c r="I14">
-        <v>0.05572177053596303</v>
+        <v>0.08336976519729013</v>
       </c>
       <c r="J14">
-        <v>0.05572177053596303</v>
+        <v>0.08336976519729013</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,33 +1302,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>1.106217</v>
+        <v>1.118034</v>
       </c>
       <c r="N14">
-        <v>3.318651</v>
+        <v>3.354102</v>
       </c>
       <c r="O14">
-        <v>0.01813136626967656</v>
+        <v>0.01817106018145251</v>
       </c>
       <c r="P14">
-        <v>0.01813136626967656</v>
+        <v>0.01817106018145251</v>
       </c>
       <c r="Q14">
-        <v>0.6500540392290001</v>
+        <v>1.307810209194</v>
       </c>
       <c r="R14">
-        <v>5.850486353061</v>
+        <v>11.770291882746</v>
       </c>
       <c r="S14">
-        <v>0.001010311830782417</v>
+        <v>0.001514917020713524</v>
       </c>
       <c r="T14">
-        <v>0.001010311830782418</v>
+        <v>0.001514917020713524</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.5876370000000001</v>
+        <v>1.169741</v>
       </c>
       <c r="H15">
-        <v>1.762911</v>
+        <v>3.509223</v>
       </c>
       <c r="I15">
-        <v>0.05572177053596303</v>
+        <v>0.08336976519729013</v>
       </c>
       <c r="J15">
-        <v>0.05572177053596303</v>
+        <v>0.08336976519729013</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,27 +1370,27 @@
         <v>177.734444</v>
       </c>
       <c r="O15">
-        <v>0.971047664518299</v>
+        <v>0.962887615892719</v>
       </c>
       <c r="P15">
-        <v>0.971047664518299</v>
+        <v>0.9628876158927191</v>
       </c>
       <c r="Q15">
-        <v>34.814445156276</v>
+        <v>69.30108875300132</v>
       </c>
       <c r="R15">
-        <v>313.330006406484</v>
+        <v>623.709798777012</v>
       </c>
       <c r="S15">
-        <v>0.05410849514177147</v>
+        <v>0.08027571444835446</v>
       </c>
       <c r="T15">
-        <v>0.05410849514177148</v>
+        <v>0.08027571444835448</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,52 +1402,362 @@
         <v>23</v>
       </c>
       <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.169741</v>
+      </c>
+      <c r="H16">
+        <v>3.509223</v>
+      </c>
+      <c r="I16">
+        <v>0.08336976519729013</v>
+      </c>
+      <c r="J16">
+        <v>0.08336976519729013</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.121724666666667</v>
+      </c>
+      <c r="N16">
+        <v>3.365174</v>
+      </c>
+      <c r="O16">
+        <v>0.01823104344324033</v>
+      </c>
+      <c r="P16">
+        <v>0.01823104344324033</v>
+      </c>
+      <c r="Q16">
+        <v>1.312127333311333</v>
+      </c>
+      <c r="R16">
+        <v>11.809145999802</v>
+      </c>
+      <c r="S16">
+        <v>0.001519917811164542</v>
+      </c>
+      <c r="T16">
+        <v>0.001519917811164542</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.169741</v>
+      </c>
+      <c r="H17">
+        <v>3.509223</v>
+      </c>
+      <c r="I17">
+        <v>0.08336976519729013</v>
+      </c>
+      <c r="J17">
+        <v>0.08336976519729013</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.04370233333333334</v>
+      </c>
+      <c r="N17">
+        <v>0.131107</v>
+      </c>
+      <c r="O17">
+        <v>0.0007102804825880949</v>
+      </c>
+      <c r="P17">
+        <v>0.0007102804825880949</v>
+      </c>
+      <c r="Q17">
+        <v>0.05112041109566667</v>
+      </c>
+      <c r="R17">
+        <v>0.460083699861</v>
+      </c>
+      <c r="S17">
+        <v>5.921591705758739E-05</v>
+      </c>
+      <c r="T17">
+        <v>5.921591705758739E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.456052666666666</v>
+      </c>
+      <c r="H18">
+        <v>4.368157999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.1037757665456611</v>
+      </c>
+      <c r="J18">
+        <v>0.1037757665456611</v>
+      </c>
+      <c r="K18">
         <v>2</v>
       </c>
-      <c r="F16">
+      <c r="L18">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G16">
-        <v>0.5876370000000001</v>
-      </c>
-      <c r="H16">
-        <v>1.762911</v>
-      </c>
-      <c r="I16">
-        <v>0.05572177053596303</v>
-      </c>
-      <c r="J16">
-        <v>0.05572177053596303</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.6602006666666668</v>
-      </c>
-      <c r="N16">
-        <v>1.980602</v>
-      </c>
-      <c r="O16">
-        <v>0.01082096921202439</v>
-      </c>
-      <c r="P16">
-        <v>0.01082096921202439</v>
-      </c>
-      <c r="Q16">
-        <v>0.3879583391580001</v>
-      </c>
-      <c r="R16">
-        <v>3.491625052422</v>
-      </c>
-      <c r="S16">
-        <v>0.0006029635634091435</v>
-      </c>
-      <c r="T16">
-        <v>0.0006029635634091435</v>
+      <c r="M18">
+        <v>1.118034</v>
+      </c>
+      <c r="N18">
+        <v>3.354102</v>
+      </c>
+      <c r="O18">
+        <v>0.01817106018145251</v>
+      </c>
+      <c r="P18">
+        <v>0.01817106018145251</v>
+      </c>
+      <c r="Q18">
+        <v>1.627916387124</v>
+      </c>
+      <c r="R18">
+        <v>14.651247484116</v>
+      </c>
+      <c r="S18">
+        <v>0.001885715699277573</v>
+      </c>
+      <c r="T18">
+        <v>0.001885715699277574</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.456052666666666</v>
+      </c>
+      <c r="H19">
+        <v>4.368157999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.1037757665456611</v>
+      </c>
+      <c r="J19">
+        <v>0.1037757665456611</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>59.24481466666666</v>
+      </c>
+      <c r="N19">
+        <v>177.734444</v>
+      </c>
+      <c r="O19">
+        <v>0.962887615892719</v>
+      </c>
+      <c r="P19">
+        <v>0.9628876158927191</v>
+      </c>
+      <c r="Q19">
+        <v>86.26357038157242</v>
+      </c>
+      <c r="R19">
+        <v>776.3721334341519</v>
+      </c>
+      <c r="S19">
+        <v>0.09992440043659098</v>
+      </c>
+      <c r="T19">
+        <v>0.099924400436591</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.456052666666666</v>
+      </c>
+      <c r="H20">
+        <v>4.368157999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.1037757665456611</v>
+      </c>
+      <c r="J20">
+        <v>0.1037757665456611</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.121724666666667</v>
+      </c>
+      <c r="N20">
+        <v>3.365174</v>
+      </c>
+      <c r="O20">
+        <v>0.01823104344324033</v>
+      </c>
+      <c r="P20">
+        <v>0.01823104344324033</v>
+      </c>
+      <c r="Q20">
+        <v>1.633290192165778</v>
+      </c>
+      <c r="R20">
+        <v>14.699611729492</v>
+      </c>
+      <c r="S20">
+        <v>0.001891940508249513</v>
+      </c>
+      <c r="T20">
+        <v>0.001891940508249513</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.456052666666666</v>
+      </c>
+      <c r="H21">
+        <v>4.368157999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.1037757665456611</v>
+      </c>
+      <c r="J21">
+        <v>0.1037757665456611</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.04370233333333334</v>
+      </c>
+      <c r="N21">
+        <v>0.131107</v>
+      </c>
+      <c r="O21">
+        <v>0.0007102804825880949</v>
+      </c>
+      <c r="P21">
+        <v>0.0007102804825880949</v>
+      </c>
+      <c r="Q21">
+        <v>0.06363289898955556</v>
+      </c>
+      <c r="R21">
+        <v>0.5726960909059999</v>
+      </c>
+      <c r="S21">
+        <v>7.370990154300162E-05</v>
+      </c>
+      <c r="T21">
+        <v>7.370990154300162E-05</v>
       </c>
     </row>
   </sheetData>
